--- a/documentation/modeling_options.xlsx
+++ b/documentation/modeling_options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jruffault/Dropbox/Mon Mac (MacBook-Pro-de-Julien.local)/Desktop/SurEau-Ecos_V4.0/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EAD937-D456-2E45-BC84-C9C20EA9C8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1282D8-87BF-B840-80B6-D76E37A9C318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="3260" windowWidth="26840" windowHeight="15940" xr2:uid="{9E9E60BE-6062-3C46-81FC-16C2E8261AB3}"/>
+    <workbookView xWindow="6360" yWindow="3240" windowWidth="26840" windowHeight="15940" xr2:uid="{9E9E60BE-6062-3C46-81FC-16C2E8261AB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404532C8-A274-744B-806F-71344FA2E580}">
   <dimension ref="C3:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
